--- a/backend/Routers/downloads/excel/user.xlsx
+++ b/backend/Routers/downloads/excel/user.xlsx
@@ -31,6 +31,15 @@
     <t>생성일자</t>
   </si>
   <si>
+    <t>최근로그인IP</t>
+  </si>
+  <si>
+    <t>최근로그인</t>
+  </si>
+  <si>
+    <t>FCM토큰</t>
+  </si>
+  <si>
     <t>yoo</t>
   </si>
   <si>
@@ -40,25 +49,37 @@
     <t>soo22839@gmail.com</t>
   </si>
   <si>
-    <t>010-1111-1111</t>
+    <t>010-0000-0000</t>
   </si>
   <si>
     <t>worker</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin@admin.ad</t>
-  </si>
-  <si>
-    <t>010-0000-0000</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>manager@mana.ma</t>
+    <t>::ffff:127.0.0.1</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>김에이</t>
+  </si>
+  <si>
+    <t>aaa@aaa.com</t>
+  </si>
+  <si>
+    <t>000-0000-0000</t>
+  </si>
+  <si>
+    <t>::1</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@tes.t</t>
   </si>
 </sst>
 </file>
@@ -131,65 +152,118 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>44936.610207025464</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44999.668088391205</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
-        <v>44936.63002054398</v>
+        <v>44987.464289027776</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44992.009549386574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44987.47454739583</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" s="2">
+        <v>44987.491781875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45001.4696434375</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44936.64023800926</v>
+      <c r="H5" s="2">
+        <v>45001.4832945949</v>
       </c>
     </row>
   </sheetData>
